--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B4FE1-E56A-4EFA-BACF-0807B4F4033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CEC08-F0A0-4B1B-B147-B46590CED530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="生物" sheetId="3" r:id="rId5"/>
     <sheet name="装备" sheetId="4" r:id="rId6"/>
     <sheet name="特殊贴图" sheetId="7" r:id="rId7"/>
+    <sheet name="待办" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -267,6 +268,39 @@
   </si>
   <si>
     <t>sunken_world/textures/item/curios_slots/oxygen_tank.png</t>
+  </si>
+  <si>
+    <t>折腾一下原版植物被水淹没后消失导致的主世界过于空旷的问题</t>
+  </si>
+  <si>
+    <t>e.g繁茂洞穴秃了</t>
+  </si>
+  <si>
+    <t>解决方法：自己多加点可以代替原功能的植物</t>
+  </si>
+  <si>
+    <t>减少溺尸生成</t>
+  </si>
+  <si>
+    <t>折腾一下原版生物，让他们可以游泳，并可以在水下生成</t>
+  </si>
+  <si>
+    <t>增加一点世界生成的feature，增加生存趣味性</t>
+  </si>
+  <si>
+    <t>e.g：野生气泡柱</t>
+  </si>
+  <si>
+    <t>修改气泡ui</t>
+  </si>
+  <si>
+    <t>多加点植物</t>
+  </si>
+  <si>
+    <t>增加水下游泳速度这个设定</t>
+  </si>
+  <si>
+    <t>整点鱼</t>
   </si>
 </sst>
 </file>
@@ -652,9 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB93D6-1B2B-464C-A05E-8DA888751065}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1111,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE30FE-1FE9-4127-A553-7668B36EA90C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
@@ -1160,4 +1192,74 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CEC08-F0A0-4B1B-B147-B46590CED530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353D092-0644-485B-B7E1-8575CE92698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -78,33 +78,6 @@
     <t>吊坠</t>
   </si>
   <si>
-    <t>防护服</t>
-  </si>
-  <si>
-    <t>护甲</t>
-  </si>
-  <si>
-    <t>防护裤</t>
-  </si>
-  <si>
-    <t>胸甲</t>
-  </si>
-  <si>
-    <t>护腿</t>
-  </si>
-  <si>
-    <t>防护头盔</t>
-  </si>
-  <si>
-    <t>头盔</t>
-  </si>
-  <si>
-    <t>防护靴</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
     <t>水生羊</t>
   </si>
   <si>
@@ -153,24 +126,12 @@
     <t>投掷式水下光源</t>
   </si>
   <si>
-    <t>流线镐</t>
-  </si>
-  <si>
-    <t>流线斧</t>
-  </si>
-  <si>
-    <t>流线铲</t>
-  </si>
-  <si>
     <t>海绵棒</t>
   </si>
   <si>
     <t>投掷式海绵</t>
   </si>
   <si>
-    <t>密封罩</t>
-  </si>
-  <si>
     <t>粘合剂</t>
   </si>
   <si>
@@ -192,9 +153,6 @@
     <t>隔水烟熏炉</t>
   </si>
   <si>
-    <t>水下篝火</t>
-  </si>
-  <si>
     <t>氧气植物</t>
   </si>
   <si>
@@ -210,9 +168,6 @@
     <t>注：两种形态，充满气和未充气</t>
   </si>
   <si>
-    <t>注：蓝火</t>
-  </si>
-  <si>
     <t>地狱熔炉</t>
   </si>
   <si>
@@ -301,13 +256,115 @@
   </si>
   <si>
     <t>整点鱼</t>
+  </si>
+  <si>
+    <t>让原版熔炉在水下烧不起来</t>
+  </si>
+  <si>
+    <t>这是代码已完成</t>
+  </si>
+  <si>
+    <t>这是贴图已完成</t>
+  </si>
+  <si>
+    <t>流线涂料</t>
+  </si>
+  <si>
+    <t>underwater_thruster</t>
+  </si>
+  <si>
+    <t>underwater_torch</t>
+  </si>
+  <si>
+    <t>throwable_underwater_touch</t>
+  </si>
+  <si>
+    <t>swift_paint</t>
+  </si>
+  <si>
+    <t>throwable_sponge</t>
+  </si>
+  <si>
+    <t>sponge_on_a_stick</t>
+  </si>
+  <si>
+    <t>adhesive</t>
+  </si>
+  <si>
+    <t>water_repellent</t>
+  </si>
+  <si>
+    <t>oxidizer</t>
+  </si>
+  <si>
+    <t>water_proof_furnace</t>
+  </si>
+  <si>
+    <t>nether_furnace</t>
+  </si>
+  <si>
+    <t>water_proof_blast_furnace</t>
+  </si>
+  <si>
+    <t>water_proof_smoker</t>
+  </si>
+  <si>
+    <t>oxygen_plant</t>
+  </si>
+  <si>
+    <t>oxygen_coral</t>
+  </si>
+  <si>
+    <t>glow_seaweed</t>
+  </si>
+  <si>
+    <t>damp_cocoa_beans</t>
+  </si>
+  <si>
+    <t>slime_plant</t>
+  </si>
+  <si>
+    <t>swim_glass</t>
+  </si>
+  <si>
+    <t>recycle_breather</t>
+  </si>
+  <si>
+    <t>flipper</t>
+  </si>
+  <si>
+    <t>end_flipper</t>
+  </si>
+  <si>
+    <t>jet_flipper</t>
+  </si>
+  <si>
+    <t>oxygen_tank</t>
+  </si>
+  <si>
+    <t>high_pressure_oxygen_tank</t>
+  </si>
+  <si>
+    <t>extreme_high_pressure_oxygen_tank</t>
+  </si>
+  <si>
+    <t>conduit_pendant</t>
+  </si>
+  <si>
+    <t>grace_of_ocean_Pendant</t>
+  </si>
+  <si>
+    <t>防护剂</t>
+  </si>
+  <si>
+    <t>Protective_agent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +380,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,12 +433,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,38 +756,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB93D6-1B2B-464C-A05E-8DA888751065}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,64 +808,84 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -790,10 +895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,74 +906,95 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
+      <c r="D10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -892,18 +1018,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -916,49 +1042,49 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,20 +1106,9 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1001,21 +1116,27 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1023,10 +1144,13 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1034,104 +1158,92 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
+      <c r="D11" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1158,32 +1270,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1196,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,51 +1323,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353D092-0644-485B-B7E1-8575CE92698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BE691-597B-4D2E-8506-2D846FD1E1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -357,7 +357,10 @@
     <t>防护剂</t>
   </si>
   <si>
-    <t>Protective_agent</t>
+    <t>protective_agent</t>
+  </si>
+  <si>
+    <t>记得检查</t>
   </si>
 </sst>
 </file>
@@ -797,18 +800,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -816,7 +821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -824,7 +829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -832,15 +837,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -848,7 +856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -856,32 +864,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B10" t="s">

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BE691-597B-4D2E-8506-2D846FD1E1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8455A87-A902-4053-9D12-7D59D17885A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>记得检查</t>
+  </si>
+  <si>
+    <t>让物品在水中不会自然下落</t>
+  </si>
+  <si>
+    <t>让玩家在水中不会自然下落</t>
   </si>
 </sst>
 </file>
@@ -802,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1316,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,6 +1389,16 @@
         <v>72</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8455A87-A902-4053-9D12-7D59D17885A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60013A77-EADF-4264-9BA9-379EB16EC08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -252,9 +252,6 @@
     <t>多加点植物</t>
   </si>
   <si>
-    <t>增加水下游泳速度这个设定</t>
-  </si>
-  <si>
     <t>整点鱼</t>
   </si>
   <si>
@@ -363,10 +360,10 @@
     <t>记得检查</t>
   </si>
   <si>
-    <t>让物品在水中不会自然下落</t>
-  </si>
-  <si>
-    <t>让玩家在水中不会自然下落</t>
+    <t>双击 蹲下 的时候可以向前瞬移一段距离，能穿墙，但不能卡墙（如果会卡墙就瞬移到墙前面</t>
+  </si>
+  <si>
+    <t>游泳时按shift加速(消耗氧气</t>
   </si>
 </sst>
 </file>
@@ -790,12 +787,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +829,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,18 +837,18 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +864,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +872,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +880,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,15 +888,15 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -932,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +940,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -970,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +991,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1117,7 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1131,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1145,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1159,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1173,10 +1170,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1187,10 +1187,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1201,10 +1204,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1215,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1229,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1243,10 +1246,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1322,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,28 +1378,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60013A77-EADF-4264-9BA9-379EB16EC08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7669EDD-86DF-414A-8CFF-D76675F8DF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -69,9 +69,6 @@
     <t>重型高压氧气瓶</t>
   </si>
   <si>
-    <t>涌流吊坠</t>
-  </si>
-  <si>
     <t>喷气脚蹼</t>
   </si>
   <si>
@@ -357,13 +354,52 @@
     <t>protective_agent</t>
   </si>
   <si>
-    <t>记得检查</t>
-  </si>
-  <si>
     <t>双击 蹲下 的时候可以向前瞬移一段距离，能穿墙，但不能卡墙（如果会卡墙就瞬移到墙前面</t>
   </si>
   <si>
     <t>游泳时按shift加速(消耗氧气</t>
+  </si>
+  <si>
+    <t>赋予玩家</t>
+  </si>
+  <si>
+    <t>潮涌吊坠</t>
+  </si>
+  <si>
+    <t>天空加护吊坠</t>
+  </si>
+  <si>
+    <t>grace_of_sky_Pendant</t>
+  </si>
+  <si>
+    <t>grace_of_land_Pendant</t>
+  </si>
+  <si>
+    <t>星球加护吊坠</t>
+  </si>
+  <si>
+    <t>天空加护碎片</t>
+  </si>
+  <si>
+    <t>海洋加护碎片</t>
+  </si>
+  <si>
+    <t>grace_of_ocean_fragment</t>
+  </si>
+  <si>
+    <t>grace_of_sky_fragment</t>
+  </si>
+  <si>
+    <t>地层加护碎片</t>
+  </si>
+  <si>
+    <t>grace_of_strata_fragment</t>
+  </si>
+  <si>
+    <t>地层加护吊坠</t>
+  </si>
+  <si>
+    <t>grace_of_strata_Pendant</t>
   </si>
 </sst>
 </file>
@@ -772,27 +808,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,87 +852,108 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -923,89 +980,89 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1029,18 +1086,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1060,42 +1117,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1176,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1128,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,15 +1227,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1187,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,13 +1255,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1212,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,41 +1283,86 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1287,32 +1389,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1430,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,51 +1442,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7669EDD-86DF-414A-8CFF-D76675F8DF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE0C914-E0BA-49A3-9477-FDCD450BD423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -360,9 +360,6 @@
     <t>游泳时按shift加速(消耗氧气</t>
   </si>
   <si>
-    <t>赋予玩家</t>
-  </si>
-  <si>
     <t>潮涌吊坠</t>
   </si>
   <si>
@@ -372,12 +369,6 @@
     <t>grace_of_sky_Pendant</t>
   </si>
   <si>
-    <t>grace_of_land_Pendant</t>
-  </si>
-  <si>
-    <t>星球加护吊坠</t>
-  </si>
-  <si>
     <t>天空加护碎片</t>
   </si>
   <si>
@@ -400,6 +391,17 @@
   </si>
   <si>
     <t>grace_of_strata_Pendant</t>
+  </si>
+  <si>
+    <t>赋予玩家潮涌之力</t>
+  </si>
+  <si>
+    <t>当玩家获得相应的加护吊坠后才能在对应的区域通行无阻，海洋吊坠是特例，只是提供增益buff
+天空对应海平面以上，地层对应海底以下，都可以通过配置修改高度
+注：要不整点花活，比如能用天空吊坠放阳光枪之类的</t>
+  </si>
+  <si>
+    <t>氧气罐hud</t>
   </si>
 </sst>
 </file>
@@ -475,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -483,6 +485,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -801,7 +809,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +850,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,26 +942,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
         <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -965,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379C365-E94A-4A62-8140-F76FFAF41C69}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,20 +1093,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1162,16 +1176,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,50 +1220,57 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1260,7 +1284,7 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1274,7 +1298,7 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1288,84 +1312,78 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G11:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/沉没世界策划案.xlsx
+++ b/沉没世界策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE0C914-E0BA-49A3-9477-FDCD450BD423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701468C-6CB5-4C97-B046-B57B2FCDD5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -486,10 +486,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,7 +809,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,10 +1162,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="D11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="D12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1378,7 +1378,7 @@
       <c r="D13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
